--- a/app/Licenciatura_em_Sociologia_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Sociologia_Pos_Laboral.xlsx
@@ -20,36 +20,32 @@
     <sheet name="20154254" sheetId="10" r:id="rId13"/>
     <sheet name="20154237" sheetId="11" r:id="rId14"/>
     <sheet name="20154244" sheetId="12" r:id="rId15"/>
-    <sheet name="20154530" sheetId="13" r:id="rId16"/>
-    <sheet name="20154239" sheetId="14" r:id="rId17"/>
-    <sheet name="20154236" sheetId="15" r:id="rId18"/>
-    <sheet name="20154253" sheetId="16" r:id="rId19"/>
-    <sheet name="20154246" sheetId="17" r:id="rId20"/>
-    <sheet name="20154528" sheetId="18" r:id="rId21"/>
-    <sheet name="20154258" sheetId="19" r:id="rId22"/>
-    <sheet name="20154497" sheetId="20" r:id="rId23"/>
-    <sheet name="20154238" sheetId="21" r:id="rId24"/>
-    <sheet name="20154251" sheetId="22" r:id="rId25"/>
-    <sheet name="20154226" sheetId="23" r:id="rId26"/>
-    <sheet name="20154256" sheetId="24" r:id="rId27"/>
-    <sheet name="20154257" sheetId="25" r:id="rId28"/>
-    <sheet name="20154225" sheetId="26" r:id="rId29"/>
-    <sheet name="20154229" sheetId="27" r:id="rId30"/>
-    <sheet name="20154245" sheetId="28" r:id="rId31"/>
-    <sheet name="20154498" sheetId="29" r:id="rId32"/>
-    <sheet name="20154234" sheetId="30" r:id="rId33"/>
-    <sheet name="20154252" sheetId="31" r:id="rId34"/>
-    <sheet name="20154247" sheetId="32" r:id="rId35"/>
-    <sheet name="20154232" sheetId="33" r:id="rId36"/>
-    <sheet name="20154230" sheetId="34" r:id="rId37"/>
-    <sheet name="20154255" sheetId="35" r:id="rId38"/>
-    <sheet name="20154248" sheetId="36" r:id="rId39"/>
-    <sheet name="20154241" sheetId="37" r:id="rId40"/>
-    <sheet name="20154259" sheetId="38" r:id="rId41"/>
-    <sheet name="20154228" sheetId="39" r:id="rId42"/>
-    <sheet name="20154249" sheetId="40" r:id="rId43"/>
-    <sheet name="Sheet2" sheetId="41" r:id="rId44"/>
-    <sheet name="Sheet3" sheetId="42" r:id="rId45"/>
+    <sheet name="20154239" sheetId="13" r:id="rId16"/>
+    <sheet name="20154236" sheetId="14" r:id="rId17"/>
+    <sheet name="20154253" sheetId="15" r:id="rId18"/>
+    <sheet name="20154246" sheetId="16" r:id="rId19"/>
+    <sheet name="20154258" sheetId="17" r:id="rId20"/>
+    <sheet name="20154238" sheetId="18" r:id="rId21"/>
+    <sheet name="20154251" sheetId="19" r:id="rId22"/>
+    <sheet name="20154226" sheetId="20" r:id="rId23"/>
+    <sheet name="20154256" sheetId="21" r:id="rId24"/>
+    <sheet name="20154257" sheetId="22" r:id="rId25"/>
+    <sheet name="20154225" sheetId="23" r:id="rId26"/>
+    <sheet name="20154229" sheetId="24" r:id="rId27"/>
+    <sheet name="20154245" sheetId="25" r:id="rId28"/>
+    <sheet name="20154234" sheetId="26" r:id="rId29"/>
+    <sheet name="20154252" sheetId="27" r:id="rId30"/>
+    <sheet name="20154247" sheetId="28" r:id="rId31"/>
+    <sheet name="20154232" sheetId="29" r:id="rId32"/>
+    <sheet name="20154230" sheetId="30" r:id="rId33"/>
+    <sheet name="20154255" sheetId="31" r:id="rId34"/>
+    <sheet name="20154248" sheetId="32" r:id="rId35"/>
+    <sheet name="20154241" sheetId="33" r:id="rId36"/>
+    <sheet name="20154259" sheetId="34" r:id="rId37"/>
+    <sheet name="20154228" sheetId="35" r:id="rId38"/>
+    <sheet name="20154249" sheetId="36" r:id="rId39"/>
+    <sheet name="Sheet2" sheetId="37" r:id="rId40"/>
+    <sheet name="Sheet3" sheetId="38" r:id="rId41"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -57,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -206,9 +202,6 @@
     <t>Essineta Leonardo Tovele</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -275,9 +268,6 @@
     <t>Aida Lambo Dlamane</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110500038549J</t>
   </si>
   <si>
@@ -302,9 +292,6 @@
     <t xml:space="preserve">Maria Paulino Bucuane </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110100400298B</t>
   </si>
   <si>
@@ -326,9 +313,6 @@
     <t>Chilela Chembene</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110202386397S</t>
   </si>
   <si>
@@ -353,9 +337,6 @@
     <t>Emilia Sarmento</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110100437215P</t>
   </si>
   <si>
@@ -404,9 +385,6 @@
     <t>Bendita Machai Mingas</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110101333104J</t>
   </si>
   <si>
@@ -482,15 +460,6 @@
     <t>+258824405319</t>
   </si>
   <si>
-    <t>Meigos</t>
-  </si>
-  <si>
-    <t>Wassilia Amélia David</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Mbanzo</t>
   </si>
   <si>
@@ -581,12 +550,6 @@
     <t>Escola Secundaria de Manjacaze</t>
   </si>
   <si>
-    <t>Macuácua</t>
-  </si>
-  <si>
-    <t>Edson da Graça Francisco</t>
-  </si>
-  <si>
     <t>Macie</t>
   </si>
   <si>
@@ -608,12 +571,6 @@
     <t>+258827696797</t>
   </si>
   <si>
-    <t>Mabuie</t>
-  </si>
-  <si>
-    <t>Ivo Adriano</t>
-  </si>
-  <si>
     <t>Leopoldino</t>
   </si>
   <si>
@@ -798,12 +755,6 @@
   </si>
   <si>
     <t>+258823824850</t>
-  </si>
-  <si>
-    <t>Dimene</t>
-  </si>
-  <si>
-    <t>Lili</t>
   </si>
   <si>
     <t>De Araujo</t>
@@ -2303,7 +2254,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2319,7 +2270,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2335,7 +2286,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2351,7 +2302,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2367,7 +2318,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2382,9 +2333,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2392,7 +2341,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2403,7 +2352,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2412,7 +2361,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2424,7 +2373,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2432,7 +2381,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2528,7 +2477,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2571,7 +2520,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2898,7 +2847,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2914,7 +2863,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2930,7 +2879,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2946,7 +2895,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2962,7 +2911,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2977,9 +2926,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2987,7 +2934,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2998,7 +2945,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3007,7 +2954,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3019,7 +2966,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3027,7 +2974,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3123,7 +3070,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3166,7 +3113,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3493,7 +3440,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3509,7 +3456,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3525,7 +3472,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3541,7 +3488,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3557,7 +3504,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3572,9 +3519,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3582,7 +3527,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3593,7 +3538,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3602,7 +3547,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3614,7 +3559,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3622,7 +3567,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3718,7 +3663,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3761,7 +3706,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4012,7 +3957,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -4062,7 +4009,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154530</v>
+        <v>20154239</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4086,7 +4033,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4102,7 +4049,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4117,7 +4064,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -4131,7 +4080,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -4145,7 +4096,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -4166,7 +4119,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -4175,14 +4130,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -4192,13 +4151,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>140</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -4293,7 +4256,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4319,7 +4282,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -4333,7 +4298,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -4635,7 +4602,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154239</v>
+        <v>20154236</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4659,7 +4626,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4675,7 +4642,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4691,7 +4658,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4707,7 +4674,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4723,7 +4690,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4738,9 +4705,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4748,7 +4713,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4759,7 +4724,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4768,7 +4733,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4780,7 +4745,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4788,7 +4753,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4884,7 +4849,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4911,7 +4876,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4927,7 +4892,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5230,7 +5195,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154236</v>
+        <v>20154253</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5254,7 +5219,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5270,7 +5235,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5286,7 +5251,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5302,7 +5267,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5318,7 +5283,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5333,9 +5298,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5343,7 +5306,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5354,7 +5317,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5363,7 +5326,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5375,7 +5338,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5383,7 +5346,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5479,7 +5442,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5506,7 +5469,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5522,7 +5485,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5825,7 +5788,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154253</v>
+        <v>20154246</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5849,7 +5812,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5865,7 +5828,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5881,7 +5844,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5897,7 +5860,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5913,7 +5876,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5928,9 +5891,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5938,7 +5899,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5949,7 +5910,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5958,7 +5919,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5970,7 +5931,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5978,7 +5939,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6074,7 +6035,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6101,7 +6062,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6117,7 +6078,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6420,7 +6381,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154246</v>
+        <v>20154258</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6444,7 +6405,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6460,7 +6421,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6476,7 +6437,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6492,7 +6453,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6508,7 +6469,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6523,9 +6484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6533,7 +6492,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6544,7 +6503,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6553,7 +6512,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6565,7 +6524,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6573,7 +6532,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6669,7 +6628,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6696,7 +6655,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6712,7 +6671,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6963,7 +6922,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -7013,7 +6974,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154528</v>
+        <v>20154238</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7037,7 +6998,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7053,7 +7014,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7068,7 +7029,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -7082,7 +7045,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>175</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -7096,7 +7061,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -7117,7 +7084,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -7126,14 +7095,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>177</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -7143,13 +7116,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>178</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -7244,7 +7221,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7270,7 +7247,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>1981</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -7284,7 +7263,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>180</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -7586,7 +7567,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154258</v>
+        <v>20154251</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7610,7 +7591,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7626,7 +7607,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7642,7 +7623,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7658,7 +7639,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7674,7 +7655,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7689,9 +7670,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7699,7 +7678,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7710,7 +7689,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7719,7 +7698,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7731,7 +7710,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7739,7 +7718,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7835,7 +7814,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7862,7 +7841,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7878,7 +7857,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8284,9 +8263,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8294,7 +8271,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8305,7 +8282,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8314,7 +8291,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8326,7 +8303,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8334,7 +8311,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8430,7 +8407,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8473,7 +8450,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8724,7 +8701,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -8774,7 +8753,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154497</v>
+        <v>20154226</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8798,7 +8777,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8814,7 +8793,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8829,7 +8808,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>192</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -8843,7 +8824,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -8857,7 +8840,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -8878,7 +8863,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -8887,14 +8874,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -8904,13 +8895,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>195</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -9005,7 +9000,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9031,7 +9026,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -9045,7 +9042,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -9347,7 +9346,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154238</v>
+        <v>20154256</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9371,7 +9370,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9387,7 +9386,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9403,7 +9402,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9419,7 +9418,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9435,7 +9434,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9450,9 +9449,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9460,7 +9457,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9471,7 +9468,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9480,7 +9477,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9492,7 +9489,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9500,7 +9497,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9596,7 +9593,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9623,7 +9620,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>1981</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9639,7 +9636,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9942,7 +9939,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154251</v>
+        <v>20154257</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9966,7 +9963,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9982,7 +9979,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9998,7 +9995,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10014,7 +10011,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10030,7 +10027,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10045,9 +10042,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10055,7 +10050,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10066,7 +10061,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10075,7 +10070,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10087,7 +10082,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10095,7 +10090,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10191,7 +10186,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10218,7 +10213,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10234,7 +10229,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10537,7 +10532,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154226</v>
+        <v>20154225</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10561,7 +10556,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10577,7 +10572,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10593,7 +10588,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10609,7 +10604,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10625,7 +10620,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10640,9 +10635,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10650,7 +10643,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10661,7 +10654,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10670,7 +10663,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10682,7 +10675,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10690,7 +10683,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10786,7 +10779,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10813,7 +10806,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10829,7 +10822,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11132,7 +11125,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154256</v>
+        <v>20154229</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11156,7 +11149,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11172,7 +11165,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11188,7 +11181,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11204,7 +11197,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11220,7 +11213,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11235,9 +11228,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11245,7 +11236,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11256,7 +11247,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11265,7 +11256,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11277,7 +11268,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11285,7 +11276,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11381,7 +11372,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11408,7 +11399,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11424,7 +11415,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11727,7 +11718,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154257</v>
+        <v>20154245</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11751,7 +11742,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11767,7 +11758,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11783,7 +11774,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11799,7 +11790,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11815,7 +11806,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11830,9 +11821,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11840,7 +11829,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11851,7 +11840,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11860,7 +11849,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11872,7 +11861,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11880,7 +11869,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11976,7 +11965,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12003,7 +11992,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12019,7 +12008,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12322,7 +12311,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154225</v>
+        <v>20154234</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12346,7 +12335,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12362,7 +12351,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12378,7 +12367,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12394,7 +12383,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12410,7 +12399,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12425,9 +12414,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12435,7 +12422,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12446,7 +12433,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12455,7 +12442,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12467,7 +12454,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12475,7 +12462,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12571,7 +12558,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12598,7 +12585,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12614,7 +12601,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12917,7 +12904,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154229</v>
+        <v>20154252</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12941,7 +12928,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12957,7 +12944,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12973,7 +12960,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12989,7 +12976,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13005,7 +12992,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13020,9 +13007,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13030,7 +13015,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13041,7 +13026,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13050,7 +13035,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13062,7 +13047,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13070,7 +13055,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13166,7 +13151,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13193,7 +13178,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13209,7 +13194,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13512,7 +13497,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154245</v>
+        <v>20154247</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13536,7 +13521,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13552,7 +13537,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13568,7 +13553,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13584,7 +13569,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13600,7 +13585,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13615,9 +13600,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13625,7 +13608,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13636,7 +13619,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13645,7 +13628,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13657,15 +13640,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>245</v>
+      <c r="H17" s="20">
+        <v>392173</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13761,7 +13744,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13788,7 +13771,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13804,7 +13787,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14055,7 +14038,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -14105,7 +14090,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154498</v>
+        <v>20154232</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14129,7 +14114,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14145,7 +14130,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14160,7 +14145,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>257</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -14174,7 +14161,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>258</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -14188,7 +14177,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -14209,7 +14200,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -14218,14 +14211,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -14235,13 +14232,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>260</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -14336,7 +14337,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14362,7 +14363,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -14376,7 +14379,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>204</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -14702,7 +14707,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14718,7 +14723,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14734,7 +14739,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14750,7 +14755,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14766,7 +14771,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14781,9 +14786,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14791,7 +14794,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14802,7 +14805,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14811,7 +14814,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14823,7 +14826,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14831,7 +14834,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14927,7 +14930,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14970,7 +14973,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15273,7 +15276,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154234</v>
+        <v>20154230</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15297,7 +15300,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15313,7 +15316,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15329,7 +15332,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15345,7 +15348,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15361,7 +15364,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15376,9 +15379,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15386,7 +15387,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15397,7 +15398,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15406,7 +15407,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15418,7 +15419,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15426,7 +15427,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15522,7 +15523,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15549,7 +15550,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15565,7 +15566,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15868,7 +15869,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154252</v>
+        <v>20154255</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15892,7 +15893,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15908,7 +15909,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15924,7 +15925,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15940,7 +15941,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15956,7 +15957,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15971,9 +15972,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15981,7 +15980,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15992,7 +15991,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16001,7 +16000,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16013,7 +16012,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16021,7 +16020,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16117,7 +16116,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16144,7 +16143,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16160,7 +16159,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16463,7 +16462,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154247</v>
+        <v>20154248</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16487,7 +16486,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16503,7 +16502,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16519,7 +16518,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16535,7 +16534,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16551,7 +16550,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16566,9 +16565,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16576,7 +16573,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16587,7 +16584,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16596,7 +16593,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16608,15 +16605,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>268</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>392173</v>
+      <c r="H17" s="20" t="s">
+        <v>281</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16712,7 +16709,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16739,7 +16736,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16755,7 +16752,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17058,7 +17055,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154232</v>
+        <v>20154241</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17082,7 +17079,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17098,7 +17095,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17114,7 +17111,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17130,7 +17127,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17146,7 +17143,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17161,9 +17158,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17171,7 +17166,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17182,7 +17177,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17191,7 +17186,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17203,7 +17198,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17211,7 +17206,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17307,7 +17302,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17334,7 +17329,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17350,7 +17345,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17653,7 +17648,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154230</v>
+        <v>20154259</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17677,7 +17672,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17693,7 +17688,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17709,7 +17704,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17725,7 +17720,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17741,7 +17736,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17756,9 +17751,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17766,7 +17759,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17777,7 +17770,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17786,7 +17779,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17798,7 +17791,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17806,7 +17799,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17902,7 +17895,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17929,7 +17922,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17945,7 +17938,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18248,7 +18241,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154255</v>
+        <v>20154228</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18272,7 +18265,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18288,7 +18281,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18304,7 +18297,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18320,7 +18313,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18336,7 +18329,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18351,9 +18344,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18361,7 +18352,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18372,7 +18363,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18381,7 +18372,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18393,7 +18384,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18401,7 +18392,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18497,7 +18488,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18524,7 +18515,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18540,7 +18531,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>306</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18843,7 +18834,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154248</v>
+        <v>20154249</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18867,7 +18858,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18883,7 +18874,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18899,7 +18890,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18915,7 +18906,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18931,7 +18922,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18946,9 +18937,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18956,7 +18945,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18967,7 +18956,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18976,7 +18965,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18988,7 +18977,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18996,7 +18985,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19092,7 +19081,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19119,7 +19108,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19135,7 +19124,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19338,6 +19327,62 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
@@ -19438,7 +19483,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154241</v>
+        <v>20154231</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19462,7 +19507,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19478,7 +19523,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19494,7 +19539,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>301</v>
+        <v>68</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19510,7 +19555,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>302</v>
+        <v>69</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19526,7 +19571,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>303</v>
+        <v>70</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19541,9 +19586,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19551,7 +19594,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19562,7 +19605,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19571,7 +19614,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19583,7 +19626,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19591,7 +19634,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>304</v>
+        <v>71</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19687,7 +19730,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19714,7 +19757,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2003</v>
+        <v>1995</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19730,7 +19773,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19928,2442 +19971,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154259</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154228</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154231</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>1995</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154249</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2009</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -22493,7 +20100,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22509,7 +20116,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22525,7 +20132,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22541,7 +20148,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22557,7 +20164,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22572,9 +20179,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22582,7 +20187,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22593,7 +20198,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22602,7 +20207,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22614,7 +20219,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22622,7 +20227,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22718,7 +20323,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22761,7 +20366,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23088,7 +20693,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23104,7 +20709,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23120,7 +20725,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23136,7 +20741,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23152,7 +20757,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23167,9 +20772,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23177,7 +20780,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23188,7 +20791,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23197,7 +20800,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23209,7 +20812,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23217,7 +20820,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23313,7 +20916,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23356,7 +20959,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23683,7 +21286,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23699,7 +21302,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23715,7 +21318,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23731,7 +21334,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23747,7 +21350,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23762,9 +21365,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23772,7 +21373,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23783,7 +21384,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23792,7 +21393,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23804,7 +21405,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23812,7 +21413,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23908,7 +21509,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23951,7 +21552,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24278,7 +21879,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24294,7 +21895,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24310,7 +21911,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24326,7 +21927,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24342,7 +21943,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24357,9 +21958,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24367,7 +21966,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24378,7 +21977,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24387,7 +21986,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24399,7 +21998,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24407,7 +22006,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24503,7 +22102,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24546,7 +22145,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24873,7 +22472,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24889,7 +22488,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24905,7 +22504,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24921,7 +22520,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24937,7 +22536,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24952,9 +22551,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24962,7 +22559,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24973,7 +22570,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24982,7 +22579,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24994,7 +22591,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25002,7 +22599,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25098,7 +22695,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25141,7 +22738,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
